--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_mtu_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_mtu_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:807adaf7-cf6f-4877-aa1a-4079178b0901"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:9013ae28-7052-4ae3-a68d-6912f9fdd663"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
